--- a/static/excel/分销商订单模板.xlsx
+++ b/static/excel/分销商订单模板.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>订单分类</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>商品名称</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>商品数量</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>商品单价</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>收件人</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>收件人电话</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>收件人地址</t>
         </is>
@@ -481,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,47 +514,1657 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>手工胶水1支装</t>
+          <t>镜框胶1支</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>【博主推荐手工胶水1支装】</t>
+          <t>【低白化】镜框胶1支装</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Z100042</t>
+          <t>Z100001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39.9</v>
+        <v>28.9</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45068.75278935185</v>
+        <v>45082.62640046296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>手工胶水2支装</t>
+          <t>运动鞋胶</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>【博主推荐手工胶水2支装】</t>
+          <t>1个装【瑞士标准，无痕透明】</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Z100002</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45082.62753472223</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>除胶宝-20ml赠品</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>万明专业解胶剂（赠品）</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Z100003</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45082.6280787037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>免钉胶120g</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>【博主推荐，MS新型】120g*1支</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Z100004</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45082.6291550926</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>橡胶胶水-透明</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>透明胶水1个装【瑞士标准，安全环保】</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Z100005</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45082.62991898148</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>橡胶胶水-黑色</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>黑色胶水1个装【瑞士标准，安全环保】</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Z100006</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45082.63006944444</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>30ml解胶剂</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>专业解胶剂1瓶【瑞士标准，环保无毒】</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Z100007</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45082.63089120371</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>500ml除胶剂</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>【500ml】【除胶&amp;清洁二合一】家用除胶剂1瓶</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Z100008</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45082.63182870371</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>除胶剂30ml送毛巾</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>【增强版30ml】【塑料漆面不可用】强效解胶剂1瓶</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Z100009</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45082.63226851852</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>除胶剂30ml 2支装 送毛巾</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>【共60ml】【便携装】专业除胶剂2瓶</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Z100010</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45082.63278935185</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>鞋胶1支装</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>【树脂软胶】1支【防水不发白不发硬】</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Z100011</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45082.63472222222</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>玩具胶1支</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>玩具胶1个装【瑞士标准，无痕透明】</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Z100012</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45082.63628472222</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>塑料胶1支装</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1支装【10S速干，低色低味】</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Z100013</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45082.63689814815</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>塑料胶x1+增强剂x1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>【增强装】增强剂x1+塑料胶x1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Z100014</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45082.63769675926</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>塑料胶x2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>【更划算】2支装【10S速干】</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Z100015</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45082.63814814815</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>塑料胶x1+除胶剂x1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>【除胶装】除胶剂x1+塑料胶x1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Z100016</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45082.63862268518</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>手办胶水1支装</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10S速干款*1【赠滴管*2】【透明无痕不发白】</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Z100017</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45082.63947916667</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>手办胶水1支装+滴管50</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10S速干款*1【含滴管*50】【透明无痕不发白】</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Z100018</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45082.63994212963</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>(慢干)手办胶水1支装+滴管50</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>30S慢干加浓款【赠滴管*50】【处理剂*1】【不发白】</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Z100019</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45082.6403125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>手办胶水2支装+滴管50</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10S速干款*2【赠滴管*50】【透明无痕不发白】</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Z100020</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45082.64059027778</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>鞋胶x1+鞋底胶x1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>【鞋底脱胶/开裂】鞋底专用胶/1瓶【赠滴管*2】</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Z100021</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45082.64172453704</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>皮鞋胶*1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>【树脂软胶】皮质鞋专用</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Z100022</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45082.64210648148</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>鞋胶2支装</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>【更划算】2支【防水不发白不发硬】【达人推荐】</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Z100023</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45082.64238425926</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>鞋底胶*1</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>【鞋底脱胶/开裂】鞋底专用胶/1瓶</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Z100024</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45082.64423611111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>点胶管50根/1包</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>点胶管50根/1包</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Z100025</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45082.64486111111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>点胶管100根/1包</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>点胶管100根/1包</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Z100026</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45082.64497685185</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>万能胶水1支装</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>万能通用胶40g/1瓶【瑞士标准，无痕透明】</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Z100027</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45082.64582175926</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>汽车保险杠胶水x1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>汽车塑料专用胶40g/1瓶【强力速干，透明无痕】</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Z100028</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45082.64648148148</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>金属胶水1支装</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1个装【无痕透明，瑞士标准】</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Z100029</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>30</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45082.64679398148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>红木胶水1支装</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>红木专用胶-40g【瑞士标准，无痕透明】</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Z100030</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45082.64707175926</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>手工胶水1支装</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>手工专用软胶1支【不粘手 儿童可用】</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Z100031</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45082.64783564815</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>手工软胶x1+手工速干x1</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>【搭配效果佳】手工软胶*1+速干手工胶*1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Z100032</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45082.64855324074</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>手工软胶x2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>手工专用软胶2支【不粘手 儿童可用】</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Z100033</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45082.64892361111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>手工速干胶</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>速干手工胶【10秒速干 无异味】</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Z100034</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45082.64980324074</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>珠宝饰品胶*1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>珠宝饰品胶【30秒慢干】</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Z100035</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45082.65015046296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>500ml除胶剂2支装</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>家用除胶剂500ml/2瓶【快速除胶不伤漆】</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Z100036</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>128.9</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45082.65113425926</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>木头胶1支装</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>速干款40g/1瓶【赠滴管*2】【小面积粘接】</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Z100037</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45082.65215277778</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>木头胶x1+白乳胶x1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>速干胶+白乳胶【配合使用佳】</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Z100038</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45082.65261574074</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>乐高积木胶水1支装</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>乐高积木胶水1支装</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Z100039</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45082.69394675926</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>鱼竿胶水1支装</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>鱼竿胶水1支装</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Z100040</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45082.69712962963</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>鞋胶x1+解胶剂x1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>【去除残胶】软鞋胶1支+强效除胶剂1支</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Z100041</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45082.69871527778</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>金属胶2支装</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2个装【无痕透明，瑞士标准】</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Z100042</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>60</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45082.70835648148</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>珠宝胶2支装</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>速干珠宝胶2个装</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Z100043</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45068.75335648148</v>
+      <c r="D44" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45082.70898148148</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>白乳胶1支装</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>白乳胶330ml/1瓶【干后透明】</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Z100044</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45082.71064814815</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>白乳胶2支装</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>白乳胶330ml/2瓶【干后透明】</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Z100045</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45082.71079861111</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>白乳胶3支装</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>白乳胶330ml/3瓶【干后透明】</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Z100046</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45082.71090277778</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>木头胶水1瓶装</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>木头速干40g/1瓶【小面积粘接】</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Z100047</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45082.71138888889</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>木头胶水2瓶装</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>木头速干40g/2瓶【小面积粘接】</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Z100048</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45082.7115625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>木头胶水3瓶装</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>木头速干40g/3瓶【小面积粘接】</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Z100049</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45082.71173611111</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>橡胶胶水2支黑色装</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>黑色胶水2个装【瑞士标准，安全环保】</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Z100050</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45082.71265046296</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>橡胶胶水2支透明装</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>透明胶水2个装【瑞士标准，安全环保】</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Z100051</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45082.7127662037</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>橡胶透明x1+黑色x1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>橡胶透明x1+黑色x1【瑞士标准，安全环保】</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Z100052</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45082.71303240741</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>保险杠x1+处理剂x1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>汽车塑料专用胶+处理剂20ml</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Z100053</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45082.71423611111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>万能胶水x2</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>万能通用胶40g/2瓶</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Z100054</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45082.71542824074</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>POM胶1支装</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>POM胶1支装</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Z100055</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45082.72579861111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>处理剂1支装</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>处理剂1支装</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Z100056</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45082.72637731482</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>塑钢泥1支装</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>塑钢泥1支装</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Z100057</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45082.72686342592</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>尼龙胶1支装</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>尼龙胶1支装</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Z100058</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45082.72741898148</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>瞬干补鞋1支装</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>瞬干补鞋1支装</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Z100059</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45082.72820601852</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>鱼缸胶1支装</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>鱼缸胶1支装</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Z100060</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45082.72862268519</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>免钉胶120g-1支装</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>免钉胶120g-1支装</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Z100061</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45082.72912037037</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>玻璃胶1支装</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>玻璃胶1支装</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Z100062</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45082.72972222222</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>玻璃胶2支装</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>玻璃胶2支装</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Z100063</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45082.72987268519</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>红木胶水2支装</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>红木胶水2支装</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Z100064</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>79.8</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45082.73193287037</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PVC胶1支装</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>PVC胶1支装</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Z100065</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45082.73268518518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>玩具胶2支装</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>玩具胶2支装</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Z100066</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>45</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45082.73377314815</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>啫喱胶1支装</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>啫喱胶1支装</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Z100067</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45229.64824074074</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>啫喱胶2支装</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>啫喱胶2支装</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Z100068</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45229.64853009259</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>啫喱胶X1+加浓手办X1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>啫喱胶X1+加浓手办X1</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Z100069</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45229.64975694445</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>啫喱胶X1+加浓手办X1+手办X1</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>啫喱胶X1+加浓手办X1+手办X1</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Z100070</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>119</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45229.65002314815</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>加浓手办X2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>加浓手办X2</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Z100071</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45229.65606481482</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>加浓手办X1+手办胶X1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>加浓手办X1+手办胶X1</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Z100072</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45229.65814814815</v>
       </c>
     </row>
   </sheetData>
